--- a/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
+++ b/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
@@ -1,16 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/trans/gcaplc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD14C63-D574-DF40-8DC4-F8C34C5F1553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="13875"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="GCApLC" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -109,6 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +136,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -166,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +220,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +272,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,22 +464,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -432,52 +490,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>1*10^6</f>
         <v>1000000</v>
@@ -493,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -501,18 +559,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>

--- a/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
+++ b/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/trans/gcaplc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/gcaplc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD14C63-D574-DF40-8DC4-F8C34C5F1553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB7CACB-E95D-E240-89E9-A8C64D7C7F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
+++ b/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
@@ -1,33 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/gcaplc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB7CACB-E95D-E240-89E9-A8C64D7C7F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="GCApLC" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -79,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -126,7 +109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,9 +118,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -187,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,26 +199,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,23 +234,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,25 +409,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.5" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,52 +432,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>1*10^6</f>
         <v>1000000</v>
@@ -551,7 +493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -559,18 +501,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
